--- a/test-data/검증/계약자관리명부(11월).xlsx
+++ b/test-data/검증/계약자관리명부(11월).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.123.146\doowon_home\project\my\nanumpay\test-data\검증\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\project\my\nanumpay\test-data\검증\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B9FD9B-A4A4-4578-AE86-3038ADA36988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11EAFEEF-A7EE-41E0-B048-D2BFADAF9222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32160" yWindow="1080" windowWidth="26295" windowHeight="13710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="11월3째주" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="225">
   <si>
     <r>
       <t>0</t>
@@ -1226,9 +1226,6 @@
     <t>농협</t>
   </si>
   <si>
-    <t>010-2296-7133</t>
-  </si>
-  <si>
     <t>기업</t>
   </si>
   <si>
@@ -1364,6 +1361,13 @@
   <si>
     <t>설계사 계좌번호</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>123-12-123456-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>123-12-123456-1</t>
   </si>
 </sst>
 </file>
@@ -1763,8 +1767,8 @@
   <dimension ref="A1:R81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P4" sqref="P4"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O60" sqref="O60:O71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.375" defaultRowHeight="17.25" customHeight="1"/>
@@ -1831,10 +1835,10 @@
         <v>114</v>
       </c>
       <c r="N1" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="O1" s="6" t="s">
         <v>222</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>223</v>
       </c>
       <c r="P1" s="6" t="s">
         <v>113</v>
@@ -1872,7 +1876,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>103</v>
+        <v>223</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>110</v>
@@ -1887,10 +1891,10 @@
         <v>101</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
@@ -1923,7 +1927,7 @@
         <v>1</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>103</v>
+        <v>223</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>109</v>
@@ -1938,10 +1942,10 @@
         <v>130</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
@@ -1974,7 +1978,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>103</v>
+        <v>223</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>104</v>
@@ -1989,10 +1993,10 @@
         <v>130</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
@@ -2025,7 +2029,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>103</v>
+        <v>223</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>104</v>
@@ -2040,10 +2044,10 @@
         <v>130</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
@@ -2076,7 +2080,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>103</v>
+        <v>223</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>108</v>
@@ -2091,10 +2095,10 @@
         <v>130</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
@@ -2127,7 +2131,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>103</v>
+        <v>223</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>108</v>
@@ -2142,10 +2146,10 @@
         <v>130</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
@@ -2178,7 +2182,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>103</v>
+        <v>223</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>107</v>
@@ -2193,10 +2197,10 @@
         <v>130</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
@@ -2229,7 +2233,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>103</v>
+        <v>223</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>107</v>
@@ -2244,10 +2248,10 @@
         <v>130</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
@@ -2601,10 +2605,10 @@
         <v>13</v>
       </c>
       <c r="N16" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="O16" s="3" t="s">
         <v>210</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>211</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
@@ -2652,10 +2656,10 @@
         <v>13</v>
       </c>
       <c r="N17" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="O17" s="3" t="s">
         <v>210</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>211</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
@@ -2703,10 +2707,10 @@
         <v>13</v>
       </c>
       <c r="N18" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="O18" s="3" t="s">
         <v>210</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>211</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
@@ -2754,10 +2758,10 @@
         <v>13</v>
       </c>
       <c r="N19" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="O19" s="3" t="s">
         <v>210</v>
-      </c>
-      <c r="O19" s="3" t="s">
-        <v>211</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
@@ -3624,7 +3628,7 @@
         <v>5</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
@@ -3672,10 +3676,10 @@
         <v>27</v>
       </c>
       <c r="N37" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
@@ -3726,7 +3730,7 @@
         <v>5</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
@@ -3774,10 +3778,10 @@
         <v>27</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
@@ -3825,10 +3829,10 @@
         <v>27</v>
       </c>
       <c r="N40" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
@@ -3876,10 +3880,10 @@
         <v>27</v>
       </c>
       <c r="N41" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
@@ -4131,10 +4135,10 @@
         <v>0</v>
       </c>
       <c r="N46" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="O46" s="3" t="s">
         <v>212</v>
-      </c>
-      <c r="O46" s="3" t="s">
-        <v>213</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
@@ -4338,7 +4342,7 @@
         <v>5</v>
       </c>
       <c r="O50" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" s="2"/>
@@ -4386,7 +4390,7 @@
         <v>0</v>
       </c>
       <c r="N51" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O51" s="3" t="s">
         <v>4</v>
@@ -4491,7 +4495,7 @@
         <v>5</v>
       </c>
       <c r="O53" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
@@ -4539,7 +4543,7 @@
         <v>0</v>
       </c>
       <c r="N54" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O54" s="3" t="s">
         <v>4</v>
@@ -4590,7 +4594,7 @@
         <v>0</v>
       </c>
       <c r="N55" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O55" s="3" t="s">
         <v>4</v>
@@ -4644,7 +4648,7 @@
         <v>5</v>
       </c>
       <c r="O56" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="57" spans="1:18" ht="17.25" customHeight="1">
@@ -4689,7 +4693,7 @@
         <v>161</v>
       </c>
       <c r="N57" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O57" s="3" t="s">
         <v>4</v>
@@ -4833,10 +4837,10 @@
         <v>103</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="O60" s="1" t="s">
         <v>206</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="61" spans="1:18" ht="17.25" customHeight="1">
@@ -4881,10 +4885,10 @@
         <v>103</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="O61" s="1" t="s">
         <v>206</v>
+      </c>
+      <c r="O61" s="3" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="62" spans="1:18" ht="17.25" customHeight="1">
@@ -4929,10 +4933,10 @@
         <v>103</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="O62" s="1" t="s">
         <v>206</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="63" spans="1:18" ht="17.25" customHeight="1">
@@ -4977,10 +4981,10 @@
         <v>103</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="O63" s="1" t="s">
         <v>206</v>
+      </c>
+      <c r="O63" s="3" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="64" spans="1:18" ht="17.25" customHeight="1">
@@ -5025,10 +5029,10 @@
         <v>103</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="O64" s="1" t="s">
         <v>206</v>
+      </c>
+      <c r="O64" s="3" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="65" spans="1:18" ht="17.25" customHeight="1">
@@ -5073,10 +5077,10 @@
         <v>103</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="O65" s="1" t="s">
         <v>206</v>
+      </c>
+      <c r="O65" s="3" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="66" spans="1:18" ht="17.25" customHeight="1">
@@ -5121,10 +5125,10 @@
         <v>103</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="O66" s="1" t="s">
         <v>206</v>
+      </c>
+      <c r="O66" s="3" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="67" spans="1:18" ht="17.25" customHeight="1">
@@ -5169,10 +5173,10 @@
         <v>103</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="O67" s="1" t="s">
         <v>206</v>
+      </c>
+      <c r="O67" s="3" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="68" spans="1:18" ht="17.25" customHeight="1">
@@ -5217,10 +5221,10 @@
         <v>103</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="O68" s="1" t="s">
         <v>206</v>
+      </c>
+      <c r="O68" s="3" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="69" spans="1:18" ht="17.25" customHeight="1">
@@ -5265,10 +5269,10 @@
         <v>103</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="O69" s="1" t="s">
         <v>206</v>
+      </c>
+      <c r="O69" s="3" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="70" spans="1:18" ht="17.25" customHeight="1">
@@ -5313,10 +5317,10 @@
         <v>103</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="O70" s="1" t="s">
         <v>206</v>
+      </c>
+      <c r="O70" s="3" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="71" spans="1:18" ht="17.25" customHeight="1">
@@ -5361,10 +5365,10 @@
         <v>103</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="O71" s="1" t="s">
         <v>206</v>
+      </c>
+      <c r="O71" s="3" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="72" spans="1:18" ht="17.25" customHeight="1">
